--- a/medicine/Psychotrope/Basic_(Philip_Morris)/Basic_(Philip_Morris).xlsx
+++ b/medicine/Psychotrope/Basic_(Philip_Morris)/Basic_(Philip_Morris).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Basic est une marque de cigarettes appartenant au groupe Altria aux États-Unis et à Philip Morris International dans le reste du monde. Ces groupes possèdent également des marques telles que Marlboro ou Chesterfield.
 Cette marque vise essentiellement les jeunes qui veulent économiser quelques centimes par rapport à l'achat d'un paquet de Marlboro.
